--- a/test/validation/Scenarios/EnergyEnvironmentValidation.xlsx
+++ b/test/validation/Scenarios/EnergyEnvironmentValidation.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Source\engine\test\validation\Scenarios\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6722A14-3A14-4F2A-B238-26E45D61D9AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="24720" windowHeight="10965" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="15660" yWindow="5385" windowWidth="32670" windowHeight="23535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -18,7 +24,15 @@
     <sheet name="Starvation" sheetId="10" r:id="rId9"/>
     <sheet name="Dehydration" sheetId="11" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -599,9 +613,6 @@
   </si>
   <si>
     <t>Approx. 0 @cite boron2012medical pg. 690</t>
-  </si>
-  <si>
-    <t>Note: BioGears currently only supports upt to 12 hours. In the future it may support longer runs. At that time we will use @cite stewart1975effect and other sources to validated lower-level CO exposures to steady-state, which could take as long as 24 hours or more</t>
   </si>
   <si>
     <t>approx. 80% @cite stewart1975effect Increased @cite turino1981effect</t>
@@ -657,11 +668,14 @@
   <si>
     <t>%Environment Change: Carbon Monoxide 200ppm</t>
   </si>
+  <si>
+    <t>Note: Pulse currently only supports up to 12 hours. In the future it may support longer runs. At that time we will use @cite stewart1975effect and other sources to validated lower-level CO exposures to steady-state, which could take as long as 24 hours or more</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1576,14 +1590,14 @@
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Bad" xfId="2" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Bad 2" xfId="43"/>
-    <cellStyle name="Bad 3" xfId="45"/>
+    <cellStyle name="Bad 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Bad 3" xfId="45" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="1" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Good 2" xfId="42"/>
-    <cellStyle name="Good 3" xfId="44"/>
+    <cellStyle name="Good 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Good 3" xfId="44" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
     <cellStyle name="Heading 1" xfId="5" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="6" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="7" builtinId="18" customBuiltin="1"/>
@@ -1654,7 +1668,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1687,9 +1701,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1722,6 +1753,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1897,14 +1945,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2344,11 +2392,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A2:AN5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:AN4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2770,11 +2818,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2845,11 +2893,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2906,13 +2954,13 @@
         <v>49</v>
       </c>
       <c r="J2" s="44" t="s">
+        <v>194</v>
+      </c>
+      <c r="K2" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="44" t="s">
         <v>195</v>
-      </c>
-      <c r="K2" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="L2" s="44" t="s">
-        <v>196</v>
       </c>
       <c r="M2" s="42" t="s">
         <v>49</v>
@@ -2976,7 +3024,7 @@
         <v>49</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>49</v>
@@ -3047,19 +3095,19 @@
         <v>51</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K5" s="33" t="s">
         <v>53</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M5" s="33" t="s">
         <v>95</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O5" s="33" t="s">
         <v>52</v>
@@ -3094,19 +3142,19 @@
         <v>51</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K6" s="33" t="s">
         <v>53</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M6" s="33" t="s">
         <v>95</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O6" s="33" t="s">
         <v>52</v>
@@ -3141,19 +3189,19 @@
         <v>51</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K7" s="33" t="s">
         <v>53</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M7" s="33" t="s">
         <v>95</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O7" s="33" t="s">
         <v>52</v>
@@ -3188,19 +3236,19 @@
         <v>51</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K8" s="33" t="s">
         <v>53</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M8" s="33" t="s">
         <v>53</v>
       </c>
       <c r="N8" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O8" s="33" t="s">
         <v>52</v>
@@ -3250,13 +3298,13 @@
         <v>49</v>
       </c>
       <c r="J10" s="44" t="s">
+        <v>194</v>
+      </c>
+      <c r="K10" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" s="44" t="s">
         <v>195</v>
-      </c>
-      <c r="K10" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="L10" s="44" t="s">
-        <v>196</v>
       </c>
       <c r="M10" s="42" t="s">
         <v>49</v>
@@ -3320,7 +3368,7 @@
         <v>49</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>49</v>
@@ -3391,19 +3439,19 @@
         <v>51</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K13" s="33" t="s">
         <v>53</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M13" s="33" t="s">
         <v>53</v>
       </c>
       <c r="N13" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O13" s="33" t="s">
         <v>52</v>
@@ -3438,19 +3486,19 @@
         <v>51</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K14" s="33" t="s">
         <v>53</v>
       </c>
       <c r="L14" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M14" s="33" t="s">
         <v>53</v>
       </c>
       <c r="N14" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O14" s="33" t="s">
         <v>52</v>
@@ -3458,7 +3506,7 @@
     </row>
     <row r="16" spans="1:15" ht="67.5" x14ac:dyDescent="0.2">
       <c r="B16" s="23" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
@@ -3505,13 +3553,13 @@
         <v>49</v>
       </c>
       <c r="J18" s="44" t="s">
+        <v>194</v>
+      </c>
+      <c r="K18" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="L18" s="44" t="s">
         <v>195</v>
-      </c>
-      <c r="K18" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="L18" s="44" t="s">
-        <v>196</v>
       </c>
       <c r="M18" s="42" t="s">
         <v>49</v>
@@ -3575,7 +3623,7 @@
         <v>49</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>49</v>
@@ -3646,13 +3694,13 @@
         <v>108</v>
       </c>
       <c r="J21" s="50" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K21" s="33" t="s">
         <v>53</v>
       </c>
       <c r="L21" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M21" s="33" t="s">
         <v>53</v>
@@ -3670,11 +3718,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:O5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3794,7 +3842,7 @@
         <v>49</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>49</v>
@@ -3889,14 +3937,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:AD14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:Y5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -4345,14 +4393,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:X8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -4610,11 +4658,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AO32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6877,11 +6925,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6992,11 +7040,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A2:AP4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
